--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBC315-E657-4DA6-9003-D5D0A5279BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5D7326-5AFB-429A-99F2-CAF08A8CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Ngừng theo dõi</t>
-  </si>
-  <si>
     <t>Mã số thuế</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Là khách hàng</t>
   </si>
 </sst>
 </file>
@@ -458,58 +458,58 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanlt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5D7326-5AFB-429A-99F2-CAF08A8CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,15 +449,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +525,10 @@
       <c r="K2" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập giá trị:_x000a_- Nếu chỉ là nhân viên: nhập 0_x000a_- Là nhân viên kiêm khách hàng: nhập 1" sqref="A1:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập số di động gồm 10 số" sqref="K1:K1048576"/>
+  </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.39370078740157483" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanlt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
@@ -457,26 +457,26 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -527,7 +527,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập giá trị:_x000a_- Nếu chỉ là nhân viên: nhập 0_x000a_- Là nhân viên kiêm khách hàng: nhập 1" sqref="A1:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập số di động gồm 10 số" sqref="K1:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số di động gồm 10 số" sqref="K1:K1048576"/>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.39370078740157483" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Nhan_Vien_Import.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanlt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
+    <sheet name="HOADON-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -456,8 +456,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
